--- a/input/ahp_template_管理风险C3.xlsx
+++ b/input/ahp_template_管理风险C3.xlsx
@@ -46,28 +46,28 @@
     <t>进度风险C3.4</t>
   </si>
   <si>
+    <t>1/3</t>
+  </si>
+  <si>
+    <t>1/5</t>
+  </si>
+  <si>
+    <t>1/4</t>
+  </si>
+  <si>
+    <t>自动计算</t>
+  </si>
+  <si>
+    <t>1/2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>1/5</t>
-  </si>
-  <si>
-    <t>1/3</t>
-  </si>
-  <si>
-    <t>自动计算</t>
-  </si>
-  <si>
-    <t>1/7</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1/2</t>
-  </si>
-  <si>
-    <t>1/4</t>
+    <t>5</t>
   </si>
   <si>
     <t>4</t>
@@ -128,7 +128,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,13 +139,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -619,148 +612,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -769,10 +762,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1124,7 +1117,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1177,7 +1170,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1194,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1226,7 +1219,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1256,13 +1249,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1276,10 +1269,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1296,7 +1289,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1328,7 +1321,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1358,13 +1351,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1378,10 +1371,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1430,7 +1423,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1460,13 +1453,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1483,7 +1476,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1500,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1532,7 +1525,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1562,13 +1555,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1582,10 +1575,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1602,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5">
